--- a/01_jrg/07_SteeringWheel/Displays.xlsx
+++ b/01_jrg/07_SteeringWheel/Displays.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshi\Documents\GitHub\Software\01_jrg\07_SteeringWheel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4B344-777C-4F64-A1B1-86E8D72459E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250C938A-8EE2-4891-A814-4235DBA661E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBAA7A5E-AE0D-4CA3-A1B0-2782F9D7990E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBAA7A5E-AE0D-4CA3-A1B0-2782F9D7990E}"/>
   </bookViews>
   <sheets>
     <sheet name="Displays" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Suspension</t>
   </si>
@@ -178,6 +179,48 @@
   </si>
   <si>
     <t>mm/pixel</t>
+  </si>
+  <si>
+    <t>SoC</t>
+  </si>
+  <si>
+    <t>Fan duty</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>CAN Data</t>
+  </si>
+  <si>
+    <t>Signal Data</t>
+  </si>
+  <si>
+    <t>To VCU</t>
+  </si>
+  <si>
+    <t>Drivemode</t>
+  </si>
+  <si>
+    <t>Powerlimit</t>
+  </si>
+  <si>
+    <t>TV-Strength</t>
+  </si>
+  <si>
+    <t>TV-Mode</t>
+  </si>
+  <si>
+    <t>Regen Plim</t>
+  </si>
+  <si>
+    <t>TC-Mode</t>
+  </si>
+  <si>
+    <t>DRS</t>
   </si>
 </sst>
 </file>
@@ -193,12 +236,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,9 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -530,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8419FC-BA34-4186-AF8D-71F58874A6A0}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +597,7 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +613,11 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -580,8 +633,11 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -597,8 +653,11 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -614,8 +673,11 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -634,15 +696,18 @@
       <c r="J5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
@@ -654,8 +719,11 @@
       <c r="J6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -671,8 +739,11 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -691,22 +762,31 @@
       <c r="J8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -719,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B80C1-9030-45D8-8D7C-443D07414062}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -817,4 +897,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2344B3B2-BF29-45A7-8AC3-8C46C13EB2F9}">
+  <dimension ref="C2:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*C3+D3</f>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>